--- a/results/Excel/ion_lymp_pen.xlsx
+++ b/results/Excel/ion_lymp_pen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="lymp" sheetId="4" r:id="rId1"/>
@@ -1048,8 +1048,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2459,6 +2459,10 @@
         <f>E21+D21</f>
         <v>26.60000000000014</v>
       </c>
+      <c r="F24">
+        <f>SUM(F12:F21)/10</f>
+        <v>0.9295774647887326</v>
+      </c>
       <c r="I24">
         <f>SUM(I12:I21)/10</f>
         <v>0.94178403755868545</v>
@@ -2472,7 +2476,7 @@
   <autoFilter ref="A1:U21">
     <filterColumn colId="1">
       <filters>
-        <filter val="HiCS"/>
+        <filter val="CMI"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2485,8 +2489,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2654,7 +2658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2954,7 +2958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3004,7 +3008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3404,7 +3408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3454,7 +3458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3559,6 +3563,10 @@
         <f>D21+E21</f>
         <v>4547.24</v>
       </c>
+      <c r="F24">
+        <f>SUM(F2:F11)/10</f>
+        <v>0.90432192304204051</v>
+      </c>
       <c r="I24">
         <f>SUM(I12:I21)/10</f>
         <v>0.99185154964966171</v>
@@ -3568,7 +3576,7 @@
   <autoFilter ref="A1:P21">
     <filterColumn colId="1">
       <filters>
-        <filter val="CMI"/>
+        <filter val="HiCS"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3581,8 +3589,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3650,7 +3658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3700,7 +3708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3800,7 +3808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3850,7 +3858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3950,7 +3958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4050,7 +4058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4100,7 +4108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4150,7 +4158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4200,7 +4208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4300,7 +4308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4350,7 +4358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4400,7 +4408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4450,7 +4458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4500,7 +4508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4550,7 +4558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4600,7 +4608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4655,6 +4663,10 @@
         <f>E11+D11</f>
         <v>36.86</v>
       </c>
+      <c r="F24">
+        <f>SUM(F12:F21)/10</f>
+        <v>0.76295943562610291</v>
+      </c>
       <c r="I24">
         <f>SUM(I2:I11)/10</f>
         <v>0.85478483245149961</v>
@@ -4664,7 +4676,7 @@
   <autoFilter ref="A1:P21">
     <filterColumn colId="1">
       <filters>
-        <filter val="HiCS"/>
+        <filter val="CMI"/>
       </filters>
     </filterColumn>
   </autoFilter>
